--- a/Files/Book1.xlsx
+++ b/Files/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fc8d3561a0cc7a3/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monk_\IdeaProjects\JavaBasics\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10488039D87EAA5BDE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257C2075-B78F-4FD7-A53F-F44131430B1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581B0B5A-0BAE-4A76-B070-69E9475B57F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="5388" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -55,6 +56,30 @@
   </si>
   <si>
     <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Useraname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>asghar@gmail.com</t>
+  </si>
+  <si>
+    <t>123SKBDSSD+_#_$</t>
+  </si>
+  <si>
+    <t>asghar@gmail</t>
+  </si>
+  <si>
+    <t>asghar@gmail.</t>
+  </si>
+  <si>
+    <t>asghargmail.com</t>
+  </si>
+  <si>
+    <t>123SKBDSSD</t>
   </si>
 </sst>
 </file>
@@ -374,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +467,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0CE3D2-A643-4930-9D54-B45F613E0EAC}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>